--- a/vacancie_01/_static/applicants/metadata4.xlsx
+++ b/vacancie_01/_static/applicants/metadata4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/21540b8bb60256b0/Bachelorarbeit/docs/job_4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="41" documentId="8_{E4D4E635-7E83-4ADC-B0F4-0A31937C92BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{44DCB1D2-523C-454A-8CC9-00FC40556DCC}"/>
+  <xr:revisionPtr revIDLastSave="72" documentId="8_{E4D4E635-7E83-4ADC-B0F4-0A31937C92BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{89F62D53-65E1-4309-9A5B-A3B683510AF8}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="2" r:id="rId1"/>
@@ -689,7 +689,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -731,6 +731,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF141413"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -767,7 +774,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -782,6 +789,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -797,6 +810,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1064,8 +1081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5070586-2DAE-4C07-9784-311351DEDD11}">
   <dimension ref="A1:U20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1256,8 +1273,15 @@
       <c r="R3" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
+      <c r="S3" s="6">
+        <v>7</v>
+      </c>
+      <c r="T3" s="6">
+        <v>4</v>
+      </c>
+      <c r="U3" s="6">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1314,8 +1338,15 @@
       <c r="R4" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
+      <c r="S4" s="6">
+        <v>5</v>
+      </c>
+      <c r="T4" s="6">
+        <v>7</v>
+      </c>
+      <c r="U4" s="6">
+        <v>8</v>
+      </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1372,8 +1403,15 @@
       <c r="R5" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
+      <c r="S5" s="7">
+        <v>4</v>
+      </c>
+      <c r="T5" s="6">
+        <v>3</v>
+      </c>
+      <c r="U5" s="6">
+        <v>7</v>
+      </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1430,8 +1468,15 @@
       <c r="R6" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
+      <c r="S6" s="7">
+        <v>3</v>
+      </c>
+      <c r="T6" s="6">
+        <v>8</v>
+      </c>
+      <c r="U6" s="6">
+        <v>7</v>
+      </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1488,8 +1533,15 @@
       <c r="R7" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
+      <c r="S7" s="7">
+        <v>7</v>
+      </c>
+      <c r="T7" s="6">
+        <v>1</v>
+      </c>
+      <c r="U7" s="6">
+        <v>7</v>
+      </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1546,8 +1598,15 @@
       <c r="R8" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
+      <c r="S8" s="7">
+        <v>0</v>
+      </c>
+      <c r="T8" s="6">
+        <v>0</v>
+      </c>
+      <c r="U8" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1584,7 +1643,7 @@
         <v>28</v>
       </c>
       <c r="L9" t="s">
-        <v>110</v>
+        <v>28</v>
       </c>
       <c r="M9" t="s">
         <v>111</v>
@@ -1604,8 +1663,15 @@
       <c r="R9" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
+      <c r="S9" s="7">
+        <v>3</v>
+      </c>
+      <c r="T9" s="6">
+        <v>0</v>
+      </c>
+      <c r="U9" s="6">
+        <v>6</v>
+      </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1662,8 +1728,15 @@
       <c r="R10" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
+      <c r="S10" s="7">
+        <v>1</v>
+      </c>
+      <c r="T10" s="6">
+        <v>1</v>
+      </c>
+      <c r="U10" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1720,8 +1793,15 @@
       <c r="R11" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
+      <c r="S11" s="7">
+        <v>0</v>
+      </c>
+      <c r="T11" s="6">
+        <v>0</v>
+      </c>
+      <c r="U11" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -1778,8 +1858,15 @@
       <c r="R12" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="T12" s="2"/>
-      <c r="U12" s="2"/>
+      <c r="S12" s="7">
+        <v>6</v>
+      </c>
+      <c r="T12" s="6">
+        <v>8</v>
+      </c>
+      <c r="U12" s="6">
+        <v>6</v>
+      </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1836,8 +1923,15 @@
       <c r="R13" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="T13" s="2"/>
-      <c r="U13" s="2"/>
+      <c r="S13" s="7">
+        <v>5</v>
+      </c>
+      <c r="T13" s="6">
+        <v>3</v>
+      </c>
+      <c r="U13" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -1894,8 +1988,15 @@
       <c r="R14" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="T14" s="2"/>
-      <c r="U14" s="2"/>
+      <c r="S14" s="7">
+        <v>4</v>
+      </c>
+      <c r="T14" s="6">
+        <v>8</v>
+      </c>
+      <c r="U14" s="6">
+        <v>4</v>
+      </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -1952,8 +2053,15 @@
       <c r="R15" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
+      <c r="S15" s="7">
+        <v>8</v>
+      </c>
+      <c r="T15" s="6">
+        <v>1</v>
+      </c>
+      <c r="U15" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -2010,8 +2118,15 @@
       <c r="R16" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="T16" s="2"/>
-      <c r="U16" s="2"/>
+      <c r="S16" s="7">
+        <v>0</v>
+      </c>
+      <c r="T16" s="6">
+        <v>0</v>
+      </c>
+      <c r="U16" s="6">
+        <v>3</v>
+      </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -2068,8 +2183,15 @@
       <c r="R17" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="T17" s="2"/>
-      <c r="U17" s="2"/>
+      <c r="S17" s="7">
+        <v>2</v>
+      </c>
+      <c r="T17" s="6">
+        <v>2</v>
+      </c>
+      <c r="U17" s="6">
+        <v>3</v>
+      </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -2126,8 +2248,15 @@
       <c r="R18" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="T18" s="2"/>
-      <c r="U18" s="2"/>
+      <c r="S18" s="7">
+        <v>2</v>
+      </c>
+      <c r="T18" s="6">
+        <v>3</v>
+      </c>
+      <c r="U18" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="P19" s="4"/>

--- a/vacancie_01/_static/applicants/metadata4.xlsx
+++ b/vacancie_01/_static/applicants/metadata4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/21540b8bb60256b0/Bachelorarbeit/docs/job_4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="72" documentId="8_{E4D4E635-7E83-4ADC-B0F4-0A31937C92BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{89F62D53-65E1-4309-9A5B-A3B683510AF8}"/>
+  <xr:revisionPtr revIDLastSave="84" documentId="8_{E4D4E635-7E83-4ADC-B0F4-0A31937C92BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7167B129-C76E-4B97-88A2-70EDE320BEFA}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1081,8 +1081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5070586-2DAE-4C07-9784-311351DEDD11}">
   <dimension ref="A1:U20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1101,7 +1101,7 @@
     <col min="13" max="13" width="28.7109375" customWidth="1"/>
     <col min="14" max="14" width="27.5703125" customWidth="1"/>
     <col min="15" max="15" width="22.7109375" customWidth="1"/>
-    <col min="16" max="16" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="34.7109375" customWidth="1"/>
     <col min="17" max="17" width="34.85546875" style="2" customWidth="1"/>
     <col min="18" max="18" width="37.7109375" style="2" customWidth="1"/>
     <col min="19" max="19" width="17.85546875" style="2" customWidth="1"/>
@@ -1599,13 +1599,13 @@
         <v>123</v>
       </c>
       <c r="S8" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T8" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U8" s="6">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
